--- a/data/LELI_status_goal.xlsx
+++ b/data/LELI_status_goal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/aaron_pilot_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE6C13A-1086-E04E-BE1E-74BF48295346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93BBF03-1647-254A-BD02-31CB3BE73016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
+    <workbookView xWindow="15340" yWindow="-19220" windowWidth="28800" windowHeight="16160" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>session</t>
   </si>
   <si>
-    <t>bl</t>
+    <t>bl_acc</t>
   </si>
   <si>
-    <t>tx</t>
+    <t>tx_acc</t>
+  </si>
+  <si>
+    <t>bl_end</t>
+  </si>
+  <si>
+    <t>tx_end</t>
   </si>
 </sst>
 </file>
@@ -393,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,69 +417,99 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>57.58</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>61.11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>56.41</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>51.85</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>54.17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8">
         <v>70.790000000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="C9">
         <v>72</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/LELI_status_goal.xlsx
+++ b/data/LELI_status_goal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/aaron_pilot_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93BBF03-1647-254A-BD02-31CB3BE73016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1176B102-5822-0A45-B504-67AA1CE29FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15340" yWindow="-19220" windowWidth="28800" windowHeight="16160" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,10 +429,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>57.58</v>
+        <v>58.82</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -473,7 +473,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>54.17</v>
+        <v>56.25</v>
       </c>
       <c r="D6">
         <v>48</v>
@@ -484,10 +484,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>63.79</v>
       </c>
       <c r="E7">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -495,10 +495,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>70.790000000000006</v>
+        <v>72.34</v>
       </c>
       <c r="E8">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -506,10 +506,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>72</v>
+        <v>71.290000000000006</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/data/LELI_status_goal.xlsx
+++ b/data/LELI_status_goal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/aaron_pilot_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1176B102-5822-0A45-B504-67AA1CE29FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AEE2E4-8FDE-644A-B215-6EC60B40C5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>session</t>
   </si>
@@ -48,6 +48,24 @@
   </si>
   <si>
     <t>tx_end</t>
+  </si>
+  <si>
+    <t>bl_duration</t>
+  </si>
+  <si>
+    <t>tx_duration</t>
+  </si>
+  <si>
+    <t>bl_correct</t>
+  </si>
+  <si>
+    <t>tx_correct</t>
+  </si>
+  <si>
+    <t>all_duration</t>
+  </si>
+  <si>
+    <t>all_correct</t>
   </si>
 </sst>
 </file>
@@ -399,15 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +441,26 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -434,8 +470,20 @@
       <c r="D2">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -445,8 +493,20 @@
       <c r="D3">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>33</v>
+      </c>
+      <c r="J3">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -456,8 +516,20 @@
       <c r="D4">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -467,8 +539,20 @@
       <c r="D5">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -478,8 +562,20 @@
       <c r="D6">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>27</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -489,8 +585,20 @@
       <c r="E7">
         <v>116</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>96</v>
+      </c>
+      <c r="I7">
+        <v>74</v>
+      </c>
+      <c r="J7">
+        <v>74</v>
+      </c>
+      <c r="K7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -500,8 +608,20 @@
       <c r="E8">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>86</v>
+      </c>
+      <c r="I8">
+        <v>68</v>
+      </c>
+      <c r="J8">
+        <v>68</v>
+      </c>
+      <c r="K8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -510,6 +630,18 @@
       </c>
       <c r="E9">
         <v>101</v>
+      </c>
+      <c r="G9">
+        <v>104</v>
+      </c>
+      <c r="I9">
+        <v>72</v>
+      </c>
+      <c r="J9">
+        <v>72</v>
+      </c>
+      <c r="K9">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
